--- a/itss_tender.xlsx
+++ b/itss_tender.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RVS\Documents\Automation Files\your-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFCDB44-D5AF-4FE2-AC31-5834AD222234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740E4797-3AFF-44C4-A771-2DD49A96661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8345CAD9-E87D-4558-A0D2-6320CCAE02EE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="ITSS_Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -208,176 +208,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>

--- a/itss_tender.xlsx
+++ b/itss_tender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RVS\Documents\Automation Files\your-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740E4797-3AFF-44C4-A771-2DD49A96661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226DF7AF-3FD1-4373-83BE-1C1E403225A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8345CAD9-E87D-4558-A0D2-6320CCAE02EE}"/>
   </bookViews>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>91-120</t>
-  </si>
-  <si>
-    <t>121 -180</t>
   </si>
   <si>
     <t>181-360</t>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>121-180</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -574,21 +574,21 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6">
         <v>45598</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6">
         <v>45598</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6">
         <v>45598</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6">
         <v>45598</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6">
         <v>45598</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6">
         <v>45598</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <v>45598</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6">
         <v>45598</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6">
         <v>45598</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6">
         <v>45598</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6">
         <v>45598</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6">
         <v>45598</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6">
         <v>45598</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="6">
         <v>45598</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6">
         <v>45598</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="6">
         <v>45598</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="6">
         <v>45598</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="6">
         <v>45598</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="6">
         <v>45598</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="6">
         <v>45598</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="6">
         <v>45598</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="6">
         <v>45598</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="6">
         <v>45598</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="6">
         <v>45598</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="6">
         <v>45598</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="6">
         <v>45591</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="6">
         <v>45591</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="6">
         <v>45591</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="6">
         <v>45591</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="6">
         <v>45591</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="6">
         <v>45591</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="6">
         <v>45591</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="6">
         <v>45591</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="6">
         <v>45591</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="6">
         <v>45591</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="6">
         <v>45591</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="6">
         <v>45591</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="6">
         <v>45591</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="6">
         <v>45591</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="6">
         <v>45591</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="6">
         <v>45591</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="6">
         <v>45591</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="6">
         <v>45591</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" s="6">
         <v>45591</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" s="6">
         <v>45591</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="6">
         <v>45591</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="6">
         <v>45591</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" s="6">
         <v>45591</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" s="6">
         <v>45591</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51" s="6">
         <v>45591</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" s="6">
         <v>45584</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" s="6">
         <v>45584</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="6">
         <v>45584</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" s="6">
         <v>45584</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" s="6">
         <v>45584</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" s="6">
         <v>45584</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="6">
         <v>45584</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" s="6">
         <v>45584</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60" s="6">
         <v>45584</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61" s="6">
         <v>45584</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" s="6">
         <v>45584</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B63" s="6">
         <v>45584</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B64" s="6">
         <v>45584</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" s="6">
         <v>45584</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" s="6">
         <v>45584</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B67" s="6">
         <v>45584</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B68" s="6">
         <v>45584</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" s="6">
         <v>45584</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B70" s="6">
         <v>45584</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71" s="6">
         <v>45584</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B72" s="6">
         <v>45584</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73" s="6">
         <v>45584</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74" s="6">
         <v>45584</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" s="6">
         <v>45584</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76" s="6">
         <v>45584</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77" s="6">
         <v>45577</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="6">
         <v>45577</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" s="6">
         <v>45577</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B80" s="6">
         <v>45577</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81" s="6">
         <v>45577</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B82" s="6">
         <v>45577</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" s="6">
         <v>45577</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" s="6">
         <v>45577</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" s="6">
         <v>45577</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86" s="6">
         <v>45577</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B87" s="6">
         <v>45577</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88" s="6">
         <v>45577</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B89" s="6">
         <v>45577</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B90" s="6">
         <v>45577</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B91" s="6">
         <v>45577</v>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B92" s="6">
         <v>45577</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B93" s="6">
         <v>45577</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94" s="6">
         <v>45577</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B95" s="6">
         <v>45577</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B96" s="6">
         <v>45577</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B97" s="6">
         <v>45577</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B98" s="6">
         <v>45577</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B99" s="6">
         <v>45577</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B100" s="6">
         <v>45577</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B101" s="6">
         <v>45577</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B102" s="6">
         <v>45570</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103" s="6">
         <v>45570</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B104" s="6">
         <v>45570</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B105" s="6">
         <v>45570</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B106" s="6">
         <v>45570</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B107" s="6">
         <v>45570</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B108" s="6">
         <v>45570</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B109" s="6">
         <v>45570</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B110" s="6">
         <v>45570</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B111" s="6">
         <v>45570</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B112" s="6">
         <v>45570</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B113" s="6">
         <v>45570</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B114" s="6">
         <v>45570</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B115" s="6">
         <v>45570</v>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B116" s="6">
         <v>45570</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B117" s="6">
         <v>45570</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B118" s="6">
         <v>45570</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B119" s="6">
         <v>45570</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B120" s="6">
         <v>45570</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B121" s="6">
         <v>45570</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B122" s="6">
         <v>45570</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B123" s="6">
         <v>45570</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B124" s="6">
         <v>45570</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B125" s="6">
         <v>45570</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B126" s="6">
         <v>45570</v>
